--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8534DDA-C15B-4EF0-A987-DA1B13A37B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DB310-F67C-40B9-80B5-D665CF790FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,11 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4739125571824462819</t>
-  </si>
-  <si>
     <t>192.168.20.131</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4727935648655061390</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,19 +430,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>8889</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
